--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -47,7 +47,7 @@
     <t>LogInTest</t>
   </si>
   <si>
-    <t>pavledimovic11@gmail.com</t>
+    <t>pavledimovic1133@gmail.com</t>
   </si>
 </sst>
 </file>
